--- a/etf_dfs/THD.xlsx
+++ b/etf_dfs/THD.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>THD</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,5775 +426,5828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>51.59999847412109</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>56.54999923706055</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>51.22000122070312</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>51.2400016784668</v>
       </c>
-      <c r="F2">
-        <v>35.5162467956543</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>35.5162353515625</v>
+      </c>
+      <c r="G2" t="n">
         <v>37800</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>50.38000106811523</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>49.86000061035156</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>50.18999862670898</v>
       </c>
-      <c r="F3">
-        <v>34.78842926025391</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>34.78844451904297</v>
+      </c>
+      <c r="G3" t="n">
         <v>195400</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>-0.02049186216555232</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>43.04000091552734</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>43.97999954223633</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>43.04000091552734</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>43.97999954223633</v>
       </c>
-      <c r="F4">
-        <v>30.48407745361328</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>30.48406600952148</v>
+      </c>
+      <c r="G4" t="n">
         <v>56600</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.1237298118029427</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.07300025426439403</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>38.06999969482422</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>38.36000061035156</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>37.63000106811523</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>37.63000106811523</v>
       </c>
-      <c r="F5">
-        <v>26.08266258239746</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>26.08266448974609</v>
+      </c>
+      <c r="G5" t="n">
         <v>27700</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.1443837776310765</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.06637502952601811</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>38.91999816894531</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>38.91999816894531</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>38.09000015258789</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>38.09000015258789</v>
       </c>
-      <c r="F6">
-        <v>26.40150451660156</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>26.40150833129883</v>
+      </c>
+      <c r="G6" t="n">
         <v>11500</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.01222426445431135</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.07665605102516231</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>34.06999969482422</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>34.47000122070312</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>33.81999969482422</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>34.47000122070312</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>23.89235877990723</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6800</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.09503803931171206</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.0673922680804484</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>22.8700008392334</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>22.27000045776367</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>22.45000076293945</v>
       </c>
-      <c r="F8">
-        <v>15.56087970733643</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>15.56087589263916</v>
+      </c>
+      <c r="G8" t="n">
         <v>4400</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.3487090232693205</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.127219903928818</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>21.3799991607666</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>21.3799991607666</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>21.15999984741211</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>21.31999969482422</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>14.77763366699219</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5700</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>-0.05033412159079498</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.1190847555451262</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="F10">
-        <v>17.10511779785156</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>17.1051197052002</v>
+      </c>
+      <c r="G10" t="n">
         <v>7900</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.1158537174511667</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.1361442768761892</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>22.64999961853027</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>22.68000030517578</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>22.20999908447266</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>22.39999961853027</v>
       </c>
-      <c r="F11">
-        <v>16.10570335388184</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>16.10569953918457</v>
+      </c>
+      <c r="G11" t="n">
         <v>25800</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>-0.05842796315698495</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.127589914677308</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>21.64999961853027</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>21.88999938964844</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>21.31999969482422</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>21.65999984741211</v>
       </c>
-      <c r="F12">
-        <v>15.57364177703857</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>15.57364082336426</v>
+      </c>
+      <c r="G12" t="n">
         <v>9400</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>-0.03303570463036987</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.121176502967499</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>22.47999954223633</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>22.65999984741211</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>22.25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>22.25</v>
       </c>
-      <c r="F13">
-        <v>15.99785423278809</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>15.9978551864624</v>
+      </c>
+      <c r="G13" t="n">
         <v>13500</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.02723915774442554</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.1189888311660266</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>26.27000045776367</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>26.6299991607666</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>26.27000045776367</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>26.38999938964844</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>18.97453117370605</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>11500</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.1860673882988062</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.1346800445796646</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.4849727063779815</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.4849727063779815</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>31.60000038146973</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>31.94000053405762</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>31.5</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>31.79999923706055</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>22.86434745788574</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>20100</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.2050018936163447</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.1463275817379803</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.3664076487912487</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.3664076487912487</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>33.79000091552734</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>33.11000061035156</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>33.36000061035156</v>
       </c>
-      <c r="F16">
-        <v>24.27458572387695</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>24.27458381652832</v>
+      </c>
+      <c r="G16" t="n">
         <v>18600</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>0.04905664813579458</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.1419813264653715</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.2414733752256141</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.2414733752256141</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>35.54000091552734</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>35.68000030517578</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>35.13999938964844</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>35.20999908447266</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>25.6207447052002</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>67800</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.05545558873722078</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.1381934564705161</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.06431044153472276</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.06431044153472276</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>36.97000122070312</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>37.25</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>36.81000137329102</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="F18">
-        <v>27.03968048095703</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>27.0396728515625</v>
+      </c>
+      <c r="G18" t="n">
         <v>36600</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>0.05538201686007405</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.1346582581772791</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.02441586509451865</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.02441586509451865</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>41.90000152587891</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>41.90999984741211</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>41.16999816894531</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>41.66999816894531</v>
       </c>
-      <c r="F19">
-        <v>30.32140350341797</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>30.32139778137207</v>
+      </c>
+      <c r="G19" t="n">
         <v>75500</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.1213670166860157</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.1342471386942279</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>0.2088771886644953</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.2088771886644953</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>39.54999923706055</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>39.54999923706055</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>37.72000122070312</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>38.27000045776367</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>27.84737014770508</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>346900</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-0.08159342118031332</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.1315584887308063</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.7046770225923527</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.7046770225923527</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>40.27999877929688</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>40.79000091552734</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>40</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>40.4900016784668</v>
       </c>
-      <c r="F21">
-        <v>29.46277046203613</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>29.4627685546875</v>
+      </c>
+      <c r="G21" t="n">
         <v>76600</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.05800891544679265</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.128721900282708</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.8991558282384222</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.8991558282384222</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>43.25</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>43.25</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>42.4900016784668</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>42.4900016784668</v>
       </c>
-      <c r="F22">
-        <v>31.03353691101074</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>31.03353881835938</v>
+      </c>
+      <c r="G22" t="n">
         <v>166000</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.04939491027642084</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.1258497188307843</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.786044558356207</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.786044558356207</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>40.5099983215332</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>39.58000183105469</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>39.70999908447266</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>29.00309753417969</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>163800</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>-0.06542721779658101</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.1234653479249533</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.7727678464611571</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.7727678464611571</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>41.81000137329102</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>42.13999938964844</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>41.63000106811523</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>41.97999954223633</v>
       </c>
-      <c r="F24">
-        <v>30.66104507446289</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>30.66103363037109</v>
+      </c>
+      <c r="G24" t="n">
         <v>184200</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.05716445505160639</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.1211957641760693</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.9381348032304815</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.9381348032304815</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>47.79000091552734</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>48.08000183105469</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>47.4900016784668</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>47.91999816894531</v>
       </c>
-      <c r="F25">
-        <v>34.99946212768555</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>34.99945449829102</v>
+      </c>
+      <c r="G25" t="n">
         <v>86500</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>0.1414959192825316</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.1220963125338654</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>1.153707782873947</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>1.153707782873947</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>46.47000122070312</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>46.54000091552734</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>45.72999954223633</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>45.84999847412109</v>
       </c>
-      <c r="F26">
-        <v>33.48758316040039</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>33.48758697509766</v>
+      </c>
+      <c r="G26" t="n">
         <v>90600</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>-0.04319699027379531</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.1198153478654519</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.7374005128664727</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.7374005128664727</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>44.59999847412109</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>44.0099983215332</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>44.04000091552734</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>32.16561889648438</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>215600</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>-0.03947650204645825</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.1175982875696786</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>0.384905722393917</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.384905722393917</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>46.36000061035156</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>46.70999908447266</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>45.93000030517578</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>46.06999969482422</v>
       </c>
-      <c r="F28">
-        <v>34.39623260498047</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>34.396240234375</v>
+      </c>
+      <c r="G28" t="n">
         <v>101100</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.04609443090590748</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.1155583007507897</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.3809951694224119</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.3809951694224119</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>49.54999923706055</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>50.38999938964844</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>49.54999923706055</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>50.29999923706055</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>37.55437850952148</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>124600</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>0.0918167911928931</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.1145984117078458</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.428571444048758</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.428571444048758</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>55.52000045776367</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>55.54999923706055</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>54.91999816894531</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>55.31999969482422</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>41.30234527587891</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>233900</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.09980120345737475</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.1138384900970709</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.48869752212006</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.48869752212006</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>62.15000152587891</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>62.36000061035156</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>61.66999816894531</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>62.06000137329102</v>
       </c>
-      <c r="F31">
-        <v>46.33448791503906</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>46.33450317382812</v>
+      </c>
+      <c r="G31" t="n">
         <v>309800</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.1218366181425954</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.1137149588992243</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.4893209527314406</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.4893209527314406</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>63.27999877929688</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>63.36000061035156</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>63.08000183105469</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>63.31999969482422</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>47.27521514892578</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>93600</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.02030290515068334</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.1117442059516657</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.6545596795773949</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.6545596795773949</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>62.59999847412109</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>63.16999816894531</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>62.59000015258789</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>62.86999893188477</v>
       </c>
-      <c r="F33">
-        <v>46.93924713134766</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>46.93924331665039</v>
+      </c>
+      <c r="G33" t="n">
         <v>243400</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>-0.007106771400951839</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.1099292952458601</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.5527289781595637</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.5527289781595637</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>64.43000030517578</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>64.83000183105469</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>64.41999816894531</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>64.61000061035156</v>
       </c>
-      <c r="F34">
-        <v>48.64487838745117</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>48.64488220214844</v>
+      </c>
+      <c r="G34" t="n">
         <v>81000</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>0.02767618431729213</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.1081728773919247</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.5205930350220438</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.5205930350220438</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>58.31999969482422</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>58.72000122070312</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>58.15999984741211</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>58.59999847412109</v>
       </c>
-      <c r="F35">
-        <v>44.11994934082031</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>44.11994552612305</v>
+      </c>
+      <c r="G35" t="n">
         <v>320500</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.09301968858467358</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.1080703014468401</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.4756988120162102</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.4756988120162102</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>61.56000137329102</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>61.7400016784668</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>61.29999923706055</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>61.7400016784668</v>
       </c>
-      <c r="F36">
-        <v>46.48405075073242</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>46.48405456542969</v>
+      </c>
+      <c r="G36" t="n">
         <v>53200</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>0.05358367382436691</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.1066798041930516</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.4707003895116724</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.4707003895116724</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>66.34999847412109</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>67.13999938964844</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>66.08000183105469</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>66.80999755859375</v>
       </c>
-      <c r="F37">
-        <v>50.30125427246094</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>50.30125045776367</v>
+      </c>
+      <c r="G37" t="n">
         <v>487400</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>0.08211849274852256</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.1057750444783225</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.394198666766439</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.394198666766439</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>70.80999755859375</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>70.80999755859375</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="F38">
-        <v>53.84741592407227</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>53.84741973876953</v>
+      </c>
+      <c r="G38" t="n">
         <v>399000</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.07049841725172779</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.1046847408075292</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.5598691171916639</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.5598691171916639</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>68.05999755859375</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>68.11000061035156</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>67.36000061035156</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>67.76999664306641</v>
       </c>
-      <c r="F39">
-        <v>51.02402877807617</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>51.0240364074707</v>
+      </c>
+      <c r="G39" t="n">
         <v>255900</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.05243288836708226</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.1038158461777729</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.5388282296600155</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.5388282296600155</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>63.40999984741211</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>63.84999847412109</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>63.29000091552734</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>63.52999877929688</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>48.60481262207031</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>339500</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.06256452816577396</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.1031396325585818</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.3789884784052695</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.3789884784052695</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>71</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>72</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>70.80000305175781</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>71.81999969482422</v>
       </c>
-      <c r="F41">
-        <v>54.94721221923828</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>54.94722366333008</v>
+      </c>
+      <c r="G41" t="n">
         <v>536800</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>0.1304895494225775</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.1035483055580639</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.4278330175780192</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.4278330175780192</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>66.11000061035156</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>66.93000030517578</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>65.83999633789062</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>66.31999969482422</v>
       </c>
-      <c r="F42">
-        <v>50.73936462402344</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>50.73935317993164</v>
+      </c>
+      <c r="G42" t="n">
         <v>619000</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.07658034006363779</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.1032179732870617</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>0.1988430958185483</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>0.1988430958185483</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>54.54999923706055</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>54.59999847412109</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>52.97000122070312</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>53.2400016784668</v>
       </c>
-      <c r="F43">
-        <v>40.73226547241211</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>40.73226165771484</v>
+      </c>
+      <c r="G43" t="n">
         <v>470600</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>-0.197225543976868</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.1070322377958996</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.1421205204584497</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.1421205204584497</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>60.45999908447266</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>60.52999877929688</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>58.79000091552734</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>58.90000152587891</v>
       </c>
-      <c r="F44">
-        <v>45.06255340576172</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>45.06254959106445</v>
+      </c>
+      <c r="G44" t="n">
         <v>538600</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>0.1063110381099279</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.106824745492387</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.06980414071774865</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.06980414071774865</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>61.11999893188477</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>61.97999954223633</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>60.93999862670898</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>61.61000061035156</v>
       </c>
-      <c r="F45">
-        <v>47.1358757019043</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>47.13587951660156</v>
+      </c>
+      <c r="G45" t="n">
         <v>520500</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.04601017002150609</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.1056935588976233</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.02004132882041754</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.02004132882041754</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>59.90000152587891</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>60.2400016784668</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>59.81999969482422</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>60.11000061035156</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>46.58863067626953</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>73100</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>-0.02434669672358314</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.1045868927495943</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.06964866054000662</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.06964866054000662</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>65.01000213623047</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>65.26000213623047</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>64.58000183105469</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>64.97000122070312</v>
       </c>
-      <c r="F47">
-        <v>50.35540390014648</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>50.35541534423828</v>
+      </c>
+      <c r="G47" t="n">
         <v>354300</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.08085178108473712</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.1039389435722841</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.108703121372864</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.108703121372864</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>72.38999938964844</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>72.59999847412109</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>71.70999908447266</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>71.76000213623047</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>55.6180419921875</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>417700</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.1045097858696618</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.1036986558621859</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.1622934918263594</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.1622934918263594</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>72.81999969482422</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>73.09999847412109</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>72.48000335693359</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>72.79000091552734</v>
       </c>
-      <c r="F49">
-        <v>56.41634368896484</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>56.41633605957031</v>
+      </c>
+      <c r="G49" t="n">
         <v>427600</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.01435338278476506</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.1025654901802216</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.08950761226549964</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.08950761226549964</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>75</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>75.44000244140625</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>75</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>75.44000244140625</v>
       </c>
-      <c r="F50">
-        <v>58.47026443481445</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>58.47025299072266</v>
+      </c>
+      <c r="G50" t="n">
         <v>388300</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>0.03640612024382617</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.1015245389516328</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.05480992704604493</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.05480992704604493</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>66.30000305175781</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>66.73000335693359</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>65.80999755859375</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>66.34999847412109</v>
       </c>
-      <c r="F51">
-        <v>51.42499160766602</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>51.42498397827148</v>
+      </c>
+      <c r="G51" t="n">
         <v>281400</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.120493155794173</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.1022695075309533</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>-0.02095319815971386</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>-0.02095319815971386</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>68.23999786376953</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>69.05999755859375</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>68.04000091552734</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>69.05999755859375</v>
       </c>
-      <c r="F52">
-        <v>54.37609481811523</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>54.3760986328125</v>
+      </c>
+      <c r="G52" t="n">
         <v>138200</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.04084399618380785</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.1013097517167837</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.08704547277748387</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.08704547277748387</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>69.41999816894531</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>69.76000213623047</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>69.04000091552734</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>69.05000305175781</v>
       </c>
-      <c r="F53">
-        <v>54.36823272705078</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>54.36822509765625</v>
+      </c>
+      <c r="G53" t="n">
         <v>631400</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.0001447220849878361</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.100304547370862</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>-0.03856859725475648</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>-0.03856859725475648</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>70.48000335693359</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>70.86000061035156</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>70.18000030517578</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>70.65000152587891</v>
       </c>
-      <c r="F54">
-        <v>55.62801361083984</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>55.62802505493164</v>
+      </c>
+      <c r="G54" t="n">
         <v>157200</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.0231715916496309</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.09933025499561492</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.06528953333804988</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.06528953333804988</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>76.04000091552734</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>76.31999969482422</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>75.58000183105469</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>75.84999847412109</v>
       </c>
-      <c r="F55">
-        <v>59.72237014770508</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>59.72235870361328</v>
+      </c>
+      <c r="G55" t="n">
         <v>252900</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.0736022198999875</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.09874091897824952</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.4246806176341469</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.4246806176341469</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>75.37999725341797</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>75.56999969482422</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>74.59999847412109</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>74.59999847412109</v>
       </c>
-      <c r="F56">
-        <v>58.73815155029297</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>58.73814392089844</v>
+      </c>
+      <c r="G56" t="n">
         <v>310000</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.01647989486020207</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.09788482681385512</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.2665534217574523</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.2665534217574523</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>77.26999664306641</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>77.37999725341797</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>76.97000122070312</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>77.16999816894531</v>
       </c>
-      <c r="F57">
-        <v>60.76169586181641</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>60.7617073059082</v>
+      </c>
+      <c r="G57" t="n">
         <v>281700</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>0.03445039875859734</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.09702135231378689</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.2525563610525172</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.2525563610525172</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>81.30000305175781</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>82.48999786376953</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>80.88999938964844</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>82.48999786376953</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>65.28791809082031</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>185100</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>0.06893870443248362</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.0964313047265806</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.3723173685938028</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.3723173685938028</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>87.37000274658203</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>87.37000274658203</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>86.95999908447266</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>87.18000030517578</v>
       </c>
-      <c r="F59">
-        <v>68.99988555908203</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>68.99989318847656</v>
+      </c>
+      <c r="G59" t="n">
         <v>477400</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>0.05685540747802764</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.09573921757754282</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0.3418500641399911</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>0.3418500641399911</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>90.22000122070312</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>90.30000305175781</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>89.83999633789062</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>89.84999847412109</v>
       </c>
-      <c r="F60">
-        <v>71.11309814453125</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>71.11308288574219</v>
+      </c>
+      <c r="G60" t="n">
         <v>230000</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>0.03062626932322687</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.09492016114159128</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>0.252090242466106</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>0.252090242466106</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>91.19000244140625</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>91.26000213623047</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>90.76999664306641</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>91.09999847412109</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>72.1024169921875</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>211100</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>0.01391207591795363</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.09409835654020451</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>0.2515455052657916</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>0.2515455052657916</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>94</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>95.02999877929688</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>93.80000305175781</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>95</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>75.18914031982422</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>294400</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>0.04281011625907749</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.09336914683095028</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>0.2592788563837318</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>0.2592788563837318</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>87.36000061035156</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>87.36000061035156</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>85.45999908447266</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>85.45999908447266</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>67.63856506347656</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>657200</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.1004210622687088</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.09375887850896682</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>0.2880181017307055</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>0.2880181017307055</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>77.69999694824219</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>78.70999908447266</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>77.23999786376953</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>78.44000244140625</v>
       </c>
-      <c r="F64">
-        <v>63.2487678527832</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>63.24878692626953</v>
+      </c>
+      <c r="G64" t="n">
         <v>319700</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.08214365455501016</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.09377003556181177</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>0.1358239967334789</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>0.1358239967334789</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>75.70999908447266</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>76.18000030517578</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>74.97000122070312</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>75.87000274658203</v>
       </c>
-      <c r="F65">
-        <v>61.17652893066406</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>61.1765022277832</v>
+      </c>
+      <c r="G65" t="n">
         <v>602500</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.03276389106111999</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.09317800236583938</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>0.09876899918037885</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>0.09876899918037885</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>67.58000183105469</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>67.58000183105469</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>66.44000244140625</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>66.83999633789062</v>
       </c>
-      <c r="F66">
-        <v>53.89531707763672</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>53.89531326293945</v>
+      </c>
+      <c r="G66" t="n">
         <v>190800</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.1190194554078648</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.0938496776343362</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.05392788543101001</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.05392788543101001</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>74.58000183105469</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>74.87999725341797</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>73.94000244140625</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>74.55999755859375</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>60.12020874023438</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>372800</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>0.1154997253691765</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.09404946785093135</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.01700726356596394</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.01700726356596394</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>79.48999786376953</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>79.48999786376953</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>78.48000335693359</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>78.5</v>
       </c>
-      <c r="F68">
-        <v>63.29715347290039</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>63.29714965820312</v>
+      </c>
+      <c r="G68" t="n">
         <v>355900</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.05284338211398087</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.0934690644700389</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>0.05227884189879473</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>0.05227884189879473</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>73.16000366210938</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>73.54000091552734</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>72.80999755859375</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>73.38999938964844</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>59.17680358886719</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>73300</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>-0.06509554917645299</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.0932239510265946</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.04898275066718893</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.04898275066718893</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>68.54000091552734</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>68.80000305175781</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>68.23999786376953</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>68.65000152587891</v>
       </c>
-      <c r="F70">
-        <v>55.78200531005859</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>55.7819938659668</v>
+      </c>
+      <c r="G70" t="n">
         <v>124300</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>-0.06458642734963838</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.09296602018427948</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.1677778724245705</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.1677778724245705</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>64.59999847412109</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>65.52999877929688</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>64.37999725341797</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>65.31999969482422</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>53.0761833190918</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>177700</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>-0.04850694474929296</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.09253787179909287</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.2507455899728158</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.2507455899728158</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>69.11000061035156</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>69.5</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>68.29000091552734</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>68.87000274658203</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>55.96075820922852</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>145400</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.05434787306098388</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.09203161390647191</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>-0.2335002346558948</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>-0.2335002346558948</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>73.08999633789062</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>73.33000183105469</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>72.59999847412109</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>72.69999694824219</v>
       </c>
-      <c r="F73">
-        <v>59.07284927368164</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>59.07284545898438</v>
+      </c>
+      <c r="G73" t="n">
         <v>213900</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>0.05561193624099614</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.09154149389003312</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>-0.2019758708459893</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>-0.2019758708459893</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>75.69999694824219</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>76.20999908447266</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>75.56999969482422</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>76.12000274658203</v>
       </c>
-      <c r="F74">
-        <v>61.851806640625</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>61.85180282592773</v>
+      </c>
+      <c r="G74" t="n">
         <v>156300</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>0.04704272272218479</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.09100309083716415</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>-0.1987368131938734</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>-0.1987368131938734</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>74.23000335693359</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>74.41999816894531</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>73.41000366210938</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>73.45999908447266</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>59.69039154052734</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>206700</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>-0.03494487081096187</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.09052096162443218</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>-0.1404165706594338</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>-0.1404165706594338</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>77.41999816894531</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>77.48999786376953</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>76.98000335693359</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>77.20999908447266</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>63.80334854125977</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>135600</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.05104819012708983</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.09003003532189384</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>-0.01568081742287541</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>-0.01568081742287541</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>78.36000061035156</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>78.98999786376953</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>77.81999969482422</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>77.91999816894531</v>
       </c>
-      <c r="F77">
-        <v>64.39006042480469</v>
-      </c>
-      <c r="G77">
+      <c r="F77" t="n">
+        <v>64.39007568359375</v>
+      </c>
+      <c r="G77" t="n">
         <v>431800</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>0.009195688290267512</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.08941968369186311</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>0.02701984115132561</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>0.02701984115132561</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>83.48000335693359</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>83.97000122070312</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>83.33999633789062</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>83.48999786376953</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>68.99289703369141</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>164400</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.07148357065855415</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.08910287480713125</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.2491023704087227</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.2491023704087227</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>84.05000305175781</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>84.15000152587891</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>83.61000061035156</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>83.83000183105469</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>69.27386474609375</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>422900</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>0.004072391615579374</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.08851787326958355</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.1243294605150169</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.1243294605150169</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>83.38999938964844</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>83.55000305175781</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>82.65000152587891</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>83.12000274658203</v>
       </c>
-      <c r="F80">
-        <v>68.68715667724609</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>68.68714141845703</v>
+      </c>
+      <c r="G80" t="n">
         <v>330800</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>-0.008469510544727665</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.08796751949919088</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>0.05885353817301953</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>0.05885353817301953</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>84.01999664306641</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>84.01999664306641</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>83.20999908447266</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>83.26000213623047</v>
       </c>
-      <c r="F81">
-        <v>68.80282592773438</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>68.80283355712891</v>
+      </c>
+      <c r="G81" t="n">
         <v>185400</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.001684304439633744</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.08740716748180247</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.1344870258709143</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.1344870258709143</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>77.76000213623047</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>77.84999847412109</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>77.19000244140625</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>77.45999908447266</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>64.46148681640625</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>171000</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>-0.06966133681173603</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.0873097186236686</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.1283320810309474</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.1283320810309474</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>80.66000366210938</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>80.75</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>79.76999664306641</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>79.90000152587891</v>
       </c>
-      <c r="F83">
-        <v>66.49201202392578</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>66.49202728271484</v>
+      </c>
+      <c r="G83" t="n">
         <v>267000</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>0.03150016098948494</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.08679774769173422</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.2232088472010505</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.2232088472010505</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>82.22000122070312</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>82.26999664306641</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>81.62999725341797</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>81.66999816894531</v>
       </c>
-      <c r="F84">
-        <v>67.96500396728516</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>67.96499633789062</v>
+      </c>
+      <c r="G84" t="n">
         <v>192300</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.0221526484263348</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.08627168686833617</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.1858573386364288</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.1858573386364288</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>79</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>79.37000274658203</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>78.83999633789062</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>79.37000274658203</v>
       </c>
-      <c r="F85">
-        <v>66.05097961425781</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>66.05096435546875</v>
+      </c>
+      <c r="G85" t="n">
         <v>189900</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>-0.02816206041299807</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.0858442176975617</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>0.0917469886977913</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>0.0917469886977913</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>79.69000244140625</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>79.69000244140625</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>78.65000152587891</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>78.77999877929688</v>
       </c>
-      <c r="F86">
-        <v>65.55996704101562</v>
-      </c>
-      <c r="G86">
+      <c r="F86" t="n">
+        <v>65.55995178222656</v>
+      </c>
+      <c r="G86" t="n">
         <v>253400</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>-0.007433588848030692</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.08534471671594031</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>0.03494477058245082</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>0.03494477058245082</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>75.94000244140625</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>76.55000305175781</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>75.88999938964844</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>76.12999725341797</v>
       </c>
-      <c r="F87">
-        <v>63.35467147827148</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>63.35466384887695</v>
+      </c>
+      <c r="G87" t="n">
         <v>188500</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>-0.03363799907261888</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.08496091789741925</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.0363462864446138</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.0363462864446138</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>75.37000274658203</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>75.37000274658203</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>74.30999755859375</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>74.45999908447266</v>
       </c>
-      <c r="F88">
-        <v>63.23551559448242</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>63.23549652099609</v>
+      </c>
+      <c r="G88" t="n">
         <v>88600</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.02193613856816912</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.0845232396540913</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>-0.03561714846015374</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>-0.03561714846015374</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>68.43000030517578</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>69.86000061035156</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>68.34999847412109</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>69.70999908447266</v>
       </c>
-      <c r="F89">
-        <v>59.20154190063477</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>59.2015495300293</v>
+      </c>
+      <c r="G89" t="n">
         <v>185900</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>-0.06379264112817495</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.08438319377308591</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>-0.1053644671124327</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>-0.1053644671124327</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>64.66999816894531</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>65.15000152587891</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>64.30000305175781</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>64.48999786376953</v>
       </c>
-      <c r="F90">
-        <v>54.7684326171875</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>54.76843643188477</v>
+      </c>
+      <c r="G90" t="n">
         <v>187000</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.07488167105521937</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.08435275135509171</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>-0.22757217015387</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>-0.22757217015387</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>62.13999938964844</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>62.43999862670898</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>61.86000061035156</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>62.2599983215332</v>
       </c>
-      <c r="F91">
-        <v>52.87459945678711</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>52.87460327148438</v>
+      </c>
+      <c r="G91" t="n">
         <v>162100</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.03457899854403845</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.08398421151743364</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>-0.2573064897814533</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>-0.2573064897814533</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>65.86000061035156</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>65.86000061035156</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>65.01999664306641</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>65.16999816894531</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>55.34592819213867</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>128200</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>0.04673947841090231</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.08362201769568912</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>-0.2159528872052984</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>-0.2159528872052984</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>63.93999862670898</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>64.25</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>63.52999877929688</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>64.06999969482422</v>
       </c>
-      <c r="F93">
-        <v>54.41174697875977</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>54.41175079345703</v>
+      </c>
+      <c r="G93" t="n">
         <v>190600</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>-0.01687890908435319</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.08319176522677159</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>-0.2304828482950008</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>-0.2304828482950008</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>58.63999938964844</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>59.02999877929688</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>58.59999847412109</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>58.63999938964844</v>
       </c>
-      <c r="F94">
-        <v>50.26326370239258</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>50.26325607299805</v>
+      </c>
+      <c r="G94" t="n">
         <v>73500</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>-0.0847510587020408</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.08327365326050992</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>-0.2429641094405436</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>-0.2429641094405436</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>60.31000137329102</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>61.40000152587891</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>60.29999923706055</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>61.29999923706055</v>
       </c>
-      <c r="F95">
-        <v>52.54328155517578</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>52.54327774047852</v>
+      </c>
+      <c r="G95" t="n">
         <v>262900</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>0.04536152583728836</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.08292502115373292</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>-0.2327910129362636</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>-0.2327910129362636</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>63.27000045776367</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>63.83000183105469</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>63.22999954223633</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>63.33000183105469</v>
       </c>
-      <c r="F96">
-        <v>54.28329086303711</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>54.28329849243164</v>
+      </c>
+      <c r="G96" t="n">
         <v>199900</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>0.03311586654583265</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.08252704613555013</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>-0.2245622229591813</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>-0.2245622229591813</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>67.68000030517578</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>67.86000061035156</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>67.26999664306641</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>67.38999938964844</v>
       </c>
-      <c r="F97">
-        <v>57.7633171081543</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>57.76331329345703</v>
+      </c>
+      <c r="G97" t="n">
         <v>214700</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.06410859689258497</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.0823044278773582</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>-0.1509386788757482</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>-0.1509386788757482</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>67.87000274658203</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>68.09999847412109</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>67.26999664306641</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>67.94999694824219</v>
       </c>
-      <c r="F98">
-        <v>58.24332046508789</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>58.24332809448242</v>
+      </c>
+      <c r="G98" t="n">
         <v>235100</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>0.008309802102176134</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.08187032388791375</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.1374714648244039</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.1374714648244039</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>67.83000183105469</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>68.19999694824219</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>67.51000213623047</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>67.68000030517578</v>
       </c>
-      <c r="F99">
-        <v>58.01189804077148</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>58.01189041137695</v>
+      </c>
+      <c r="G99" t="n">
         <v>432000</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>-0.003973460709233989</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.08144968413564962</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.1109943156849754</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.1109943156849754</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>68.59999847412109</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>69.08000183105469</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>68.25</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>68.91000366210938</v>
       </c>
-      <c r="F100">
-        <v>60.03742218017578</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>60.03741836547852</v>
+      </c>
+      <c r="G100" t="n">
         <v>284600</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.01817380838338334</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.08103755695982905</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.07453660341933355</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.07453660341933355</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>74.11000061035156</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>74.44000244140625</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>73.63999938964844</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>74.37999725341797</v>
       </c>
-      <c r="F101">
-        <v>64.80311584472656</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>64.80313110351562</v>
+      </c>
+      <c r="G101" t="n">
         <v>384200</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>0.07937880279516385</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.08095535424551119</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>0.06699179788090848</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>0.06699179788090848</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>75.83999633789062</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>75.83999633789062</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>75.19999694824219</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>75.55999755859375</v>
       </c>
-      <c r="F102">
-        <v>65.83119201660156</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>65.83118438720703</v>
+      </c>
+      <c r="G102" t="n">
         <v>507500</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>0.01586448438758925</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.0805501050009078</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>0.1716545210345455</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>0.1716545210345455</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>73.19000244140625</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>73.77999877929688</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>73.04000091552734</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>73.51000213623047</v>
       </c>
-      <c r="F103">
-        <v>64.04515075683594</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>64.04514312744141</v>
+      </c>
+      <c r="G103" t="n">
         <v>326700</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.02713069730810391</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.08021950135697288</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>0.1806939305812083</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>0.1806939305812083</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>71.98999786376953</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>72.26000213623047</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>71.79000091552734</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>72.02999877929688</v>
       </c>
-      <c r="F104">
-        <v>62.75570297241211</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>62.75569915771484</v>
+      </c>
+      <c r="G104" t="n">
         <v>109300</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>-0.02013336027648072</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.07986642572027465</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>0.1052631702178024</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>0.1052631702178024</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>71.93000030517578</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>72.08000183105469</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>71.54000091552734</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>71.86000061035156</v>
       </c>
-      <c r="F105">
-        <v>62.60758972167969</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>62.60758590698242</v>
+      </c>
+      <c r="G105" t="n">
         <v>319100</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>-0.002360102343833104</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.07947895762432945</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>0.1215857804375273</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>0.1215857804375273</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>72.44999694824219</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>72.55000305175781</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>71.80999755859375</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>72.08999633789062</v>
       </c>
-      <c r="F106">
-        <v>63.49392318725586</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>63.49391174316406</v>
+      </c>
+      <c r="G106" t="n">
         <v>91700</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>0.003200608482960776</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.07909289810435631</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>0.2293655710817841</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>0.2293655710817841</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>75.45999908447266</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>75.69000244140625</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>75.33000183105469</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>75.68000030517578</v>
       </c>
-      <c r="F107">
-        <v>66.65584564208984</v>
-      </c>
-      <c r="G107">
+      <c r="F107" t="n">
+        <v>66.65583801269531</v>
+      </c>
+      <c r="G107" t="n">
         <v>298600</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.04979892009507902</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.07882472255548893</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>0.2345840333945945</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>0.2345840333945945</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>75.48999786376953</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>75.51999664306641</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>74.90000152587891</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>75.01000213623047</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>66.06573486328125</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>207200</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.008853041308715337</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.07846353544605564</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>0.1844307590000469</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>0.1844307590000469</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>78.12999725341797</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>78.13999938964844</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>77.80000305175781</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>77.98999786376953</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>68.69039154052734</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>95600</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.03972797817185625</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.07815728984660707</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>0.1572933457504873</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>0.1572933457504873</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>77.58000183105469</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>77.59999847412109</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>77.40000152587891</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>77.51999664306641</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>68.27642059326172</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>168600</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>-0.006026429459891847</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.0778015206450864</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>0.1408388539312773</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>0.1408388539312773</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>78.47000122070312</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>78.48999786376953</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>78.12000274658203</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>78.18000030517578</v>
       </c>
-      <c r="F111">
-        <v>68.85771942138672</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>68.85774230957031</v>
+      </c>
+      <c r="G111" t="n">
         <v>133300</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.008513979498068203</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.07744062411181582</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>0.1551418432720815</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>0.1551418432720815</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>78.05000305175781</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>78.33000183105469</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>77.91000366210938</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>77.95999908447266</v>
       </c>
-      <c r="F112">
-        <v>69.86128997802734</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>69.86128234863281</v>
+      </c>
+      <c r="G112" t="n">
         <v>130800</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>-0.002814034533695997</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.07709028426839672</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.13133064782203</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.13133064782203</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>79.11000061035156</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>79.18000030517578</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>78.73000335693359</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>79.09999847412109</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>70.88286590576172</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>168500</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>0.01462287587270494</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.0767425405131833</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.063457937550357</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.063457937550357</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>82.59999847412109</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>82.91000366210938</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>82.37000274658203</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>82.70999908447266</v>
       </c>
-      <c r="F114">
-        <v>74.11783599853516</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>74.11785125732422</v>
+      </c>
+      <c r="G114" t="n">
         <v>125200</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>0.04563844096068648</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.07648323046120126</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>0.0946268099113472</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>0.0946268099113472</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>85.83999633789062</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>86.44999694824219</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>85.65000152587891</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>86.44999694824219</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>77.46932220458984</v>
       </c>
-      <c r="G115">
+      <c r="G115" t="n">
         <v>179600</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>0.04521820705075608</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.07622430151765046</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.1760303963538323</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.1760303963538323</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>88.48999786376953</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>88.65000152587891</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>88.25</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>88.55999755859375</v>
       </c>
-      <c r="F116">
-        <v>79.36013031005859</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>79.36012268066406</v>
+      </c>
+      <c r="G116" t="n">
         <v>137000</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>0.02440717969735529</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.07590243226444253</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>0.2294877003947415</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>0.2294877003947415</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>89.80999755859375</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>90.11000061035156</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>89.43000030517578</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>89.62999725341797</v>
       </c>
-      <c r="F117">
-        <v>80.31896209716797</v>
-      </c>
-      <c r="G117">
+      <c r="F117" t="n">
+        <v>80.3189697265625</v>
+      </c>
+      <c r="G117" t="n">
         <v>239900</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.01208220104247726</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.07556983202580612</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>0.2472863413879043</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>0.2472863413879043</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>92.65000152587891</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>92.95999908447266</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>92.40000152587891</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>92.5</v>
       </c>
-      <c r="F118">
-        <v>83.46343231201172</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>83.46343994140625</v>
+      </c>
+      <c r="G118" t="n">
         <v>126100</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>0.032020560465571</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.0752739536573387</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>0.2831183894981257</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>0.2831183894981257</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>100.1800003051758</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>100.1900024414062</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>99.11000061035156</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>99.65000152587891</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>89.91493225097656</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>202800</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>0.07729731379328553</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.07522148723779873</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>0.3167283446623324</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>0.3167283446623324</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>101.7099990844727</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>101.7099990844727</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>100.3300018310547</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>100.5400009155273</v>
       </c>
-      <c r="F120">
-        <v>90.71798706054688</v>
-      </c>
-      <c r="G120">
+      <c r="F120" t="n">
+        <v>90.71797943115234</v>
+      </c>
+      <c r="G120" t="n">
         <v>255300</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>0.008931253146216012</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.07489934190645604</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>0.3403545934171579</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>0.3403545934171579</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>98.37999725341797</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>99.80000305175781</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>98.09999847412109</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>99.69999694824219</v>
       </c>
-      <c r="F121">
-        <v>89.96005249023438</v>
-      </c>
-      <c r="G121">
+      <c r="F121" t="n">
+        <v>89.96004486083984</v>
+      </c>
+      <c r="G121" t="n">
         <v>238900</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>-0.008354923012094617</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.07459762914823133</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>0.2783690175552382</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>0.2783690175552382</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>98.37000274658203</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>98.58000183105469</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>97.44999694824219</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>97.47000122070312</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>87.94789886474609</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>271500</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>-0.02236705913538528</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.07433705836910064</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>0.2573530113719515</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>0.2573530113719515</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>93.55999755859375</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>94.22000122070312</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>92.84999847412109</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>94.05999755859375</v>
       </c>
-      <c r="F123">
-        <v>84.87101745605469</v>
-      </c>
-      <c r="G123">
+      <c r="F123" t="n">
+        <v>84.87102508544922</v>
+      </c>
+      <c r="G123" t="n">
         <v>265100</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>-0.03498516076128944</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.07439593532674882</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>0.2031209668896183</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>0.2031209668896183</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>81.76999664306641</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>82.38999938964844</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>81.68000030517578</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>82.26999664306641</v>
       </c>
-      <c r="F124">
-        <v>75.53175354003906</v>
-      </c>
-      <c r="G124">
+      <c r="F124" t="n">
+        <v>75.53174591064453</v>
+      </c>
+      <c r="G124" t="n">
         <v>177800</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>-0.1253455371204202</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.07442014638637734</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>0.05528473074921036</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>0.05528473074921036</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>88.68000030517578</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>89.38999938964844</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>88.55000305175781</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>89.16999816894531</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>81.86660766601562</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>358600</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.08387020551143332</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.07339904555772699</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>0.1273072046659873</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>0.1273072046659873</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>90.41000366210938</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>91.06999969482422</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>89.98000335693359</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>90.30999755859375</v>
       </c>
-      <c r="F126">
-        <v>82.91323089599609</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>82.91323852539062</v>
+      </c>
+      <c r="G126" t="n">
         <v>552600</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>0.01278456221888158</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.0733992034916691</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>0.09188729970071852</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>0.09188729970071852</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>93.95999908447266</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>94.58999633789062</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>93.83999633789062</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>94.30000305175781</v>
       </c>
-      <c r="F127">
-        <v>86.57645416259766</v>
-      </c>
-      <c r="G127">
+      <c r="F127" t="n">
+        <v>86.57644653320312</v>
+      </c>
+      <c r="G127" t="n">
         <v>175600</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>0.04418121582358947</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.07282228427617141</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>0.09080400671633848</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>0.09080400671633848</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>87.09999847412109</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>87.97000122070312</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>86.34999847412109</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>86.69999694824219</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>79.59891510009766</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>176300</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>-0.08059391153300666</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.06542409048667029</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.02100271749805471</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.02100271749805471</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>86.48999786376953</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>86.58999633789062</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>86.05999755859375</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>86.23000335693359</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>79.16741180419922</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>283900</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>-0.005420918198984159</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.06518422136062968</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.03793366061220893</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.03793366061220893</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>83.23999786376953</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>83.41999816894531</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>82.47000122070312</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>82.80999755859375</v>
       </c>
-      <c r="F130">
-        <v>76.58013153076172</v>
-      </c>
-      <c r="G130">
+      <c r="F130" t="n">
+        <v>76.58013916015625</v>
+      </c>
+      <c r="G130" t="n">
         <v>94600</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.0396614364513399</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.06468246592054824</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.1047567831503379</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.1047567831503379</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>90.70999908447266</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>91.06999969482422</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>90.34999847412109</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>90.90000152587891</v>
       </c>
-      <c r="F131">
-        <v>84.06150817871094</v>
-      </c>
-      <c r="G131">
+      <c r="F131" t="n">
+        <v>84.06151580810547</v>
+      </c>
+      <c r="G131" t="n">
         <v>197200</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>0.0976935660644227</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.06481345820369624</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>-0.08780732429519977</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>-0.08780732429519977</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>90.08999633789062</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>90.38999938964844</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>89.37000274658203</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>89.61000061035156</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>82.86856079101562</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>327500</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.01419142897549985</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.06472174572307825</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>-0.1087129521150398</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>-0.1087129521150398</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>88.62999725341797</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>88.66000366210938</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>88.04000091552734</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>88.33000183105469</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>81.68486785888672</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>245200</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>-0.01428410635619404</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.06476122497897621</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>-0.1140420808948477</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>-0.1140420808948477</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>90.43000030517578</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>90.73000335693359</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>89.91000366210938</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>90.58999633789062</v>
       </c>
-      <c r="F134">
-        <v>83.77482604980469</v>
-      </c>
-      <c r="G134">
+      <c r="F134" t="n">
+        <v>83.77484130859375</v>
+      </c>
+      <c r="G134" t="n">
         <v>232500</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>0.02558580844545366</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.06279762376588541</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>-0.07058587048987486</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>-0.07058587048987486</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>88.44000244140625</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>89.79000091552734</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>88.34999847412109</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>89.58000183105469</v>
       </c>
-      <c r="F135">
-        <v>82.8408203125</v>
-      </c>
-      <c r="G135">
+      <c r="F135" t="n">
+        <v>82.84082794189453</v>
+      </c>
+      <c r="G135" t="n">
         <v>490400</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>-0.01114907327149861</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.06027280762602671</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>-0.04762912868191704</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>-0.04762912868191704</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>95.76000213623047</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>95.76000213623047</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>95.27999877929688</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>95.58999633789062</v>
       </c>
-      <c r="F136">
-        <v>89.80668640136719</v>
-      </c>
-      <c r="G136">
+      <c r="F136" t="n">
+        <v>89.80667114257812</v>
+      </c>
+      <c r="G136" t="n">
         <v>245700</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>0.06709080580474436</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.06039214092398689</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>0.1619059224301891</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>0.1619059224301891</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>92.83999633789062</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>93.30000305175781</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>91.08999633789062</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>92</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>86.43388366699219</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>249200</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>-0.03755619285935252</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.06040901446478014</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>0.03173715250832276</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>0.03173715250832276</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>90.40000152587891</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>90.58999633789062</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>89.80999755859375</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>90</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>84.55488586425781</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>166300</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="n">
         <v>-0.02173913043478259</v>
       </c>
-      <c r="I138">
+      <c r="I138" t="n">
         <v>0.06033089848028736</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="n">
         <v>-0.003432594031381964</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="n">
         <v>-0.003432594031381964</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>88.97000122070312</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>89.55000305175781</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>88.68000030517578</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>88.69999694824219</v>
       </c>
-      <c r="F139">
-        <v>83.33354187011719</v>
-      </c>
-      <c r="G139">
+      <c r="F139" t="n">
+        <v>83.33353424072266</v>
+      </c>
+      <c r="G139" t="n">
         <v>144400</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="n">
         <v>-0.01444447835286455</v>
       </c>
-      <c r="I139">
+      <c r="I139" t="n">
         <v>0.05947731251571053</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="n">
         <v>-0.05938500447812278</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="n">
         <v>-0.05938500447812278</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>88.08999633789062</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>88.08999633789062</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>87.43000030517578</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>87.98999786376953</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>82.66649627685547</v>
       </c>
-      <c r="G140">
+      <c r="G140" t="n">
         <v>141800</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="n">
         <v>-0.008004499536645393</v>
       </c>
-      <c r="I140">
+      <c r="I140" t="n">
         <v>0.05892161725590219</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="n">
         <v>0.01487890381700296</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="n">
         <v>0.01487890381700296</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>87.37000274658203</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>87.76999664306641</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>87.37000274658203</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>87.44000244140625</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>82.14976501464844</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>229500</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="n">
         <v>-0.006250658435232759</v>
       </c>
-      <c r="I141">
+      <c r="I141" t="n">
         <v>0.05876154998277369</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="n">
         <v>0.01403222819630523</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="n">
         <v>0.01403222819630523</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>87.38999938964844</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>87.76000213623047</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>87.23000335693359</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>87.59999847412109</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
         <v>82.94985198974609</v>
       </c>
-      <c r="G142">
+      <c r="G142" t="n">
         <v>33800</v>
       </c>
-      <c r="H142">
+      <c r="H142" t="n">
         <v>0.00182978074391138</v>
       </c>
-      <c r="I142">
+      <c r="I142" t="n">
         <v>0.05864142887886811</v>
       </c>
-      <c r="J142">
+      <c r="J142" t="n">
         <v>0.05784326840654819</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="n">
         <v>0.05784326840654819</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>79.30000305175781</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>79.30000305175781</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>77.98000335693359</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>78.91000366210938</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
         <v>74.72116088867188</v>
       </c>
-      <c r="G143">
+      <c r="G143" t="n">
         <v>362200</v>
       </c>
-      <c r="H143">
+      <c r="H143" t="n">
         <v>-0.0992008557463494</v>
       </c>
-      <c r="I143">
+      <c r="I143" t="n">
         <v>0.05907514613193518</v>
       </c>
-      <c r="J143">
+      <c r="J143" t="n">
         <v>-0.1319031646039744</v>
       </c>
-      <c r="K143">
+      <c r="K143" t="n">
         <v>-0.1319031646039744</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>69.52999877929688</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>70.62000274658203</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>68.15000152587891</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>70.30000305175781</v>
       </c>
-      <c r="F144">
-        <v>66.56821441650391</v>
-      </c>
-      <c r="G144">
+      <c r="F144" t="n">
+        <v>66.56820678710938</v>
+      </c>
+      <c r="G144" t="n">
         <v>531900</v>
       </c>
-      <c r="H144">
+      <c r="H144" t="n">
         <v>-0.1091116488502442</v>
       </c>
-      <c r="I144">
+      <c r="I144" t="n">
         <v>0.05984527603040815</v>
       </c>
-      <c r="J144">
+      <c r="J144" t="n">
         <v>-0.2154893139947496</v>
       </c>
-      <c r="K144">
+      <c r="K144" t="n">
         <v>-0.2154893139947496</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>56.84999847412109</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>57.9900016784668</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>56.27000045776367</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>57.47000122070312</v>
       </c>
-      <c r="F145">
-        <v>54.41927337646484</v>
-      </c>
-      <c r="G145">
+      <c r="F145" t="n">
+        <v>54.41926956176758</v>
+      </c>
+      <c r="G145" t="n">
         <v>171200</v>
       </c>
-      <c r="H145">
+      <c r="H145" t="n">
         <v>-0.1825035743114933</v>
       </c>
-      <c r="I145">
+      <c r="I145" t="n">
         <v>0.0609836519968435</v>
       </c>
-      <c r="J145">
+      <c r="J145" t="n">
         <v>-0.3493716740703376</v>
       </c>
-      <c r="K145">
+      <c r="K145" t="n">
         <v>-0.3493716740703376</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>66.06999969482422</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>66.36000061035156</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>64.06999969482422</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>64.84999847412109</v>
       </c>
-      <c r="F146">
-        <v>61.40751647949219</v>
-      </c>
-      <c r="G146">
+      <c r="F146" t="n">
+        <v>61.40751266479492</v>
+      </c>
+      <c r="G146" t="n">
         <v>85300</v>
       </c>
-      <c r="H146">
+      <c r="H146" t="n">
         <v>0.1284147746069542</v>
       </c>
-      <c r="I146">
+      <c r="I146" t="n">
         <v>0.06188710555323532</v>
       </c>
-      <c r="J146">
+      <c r="J146" t="n">
         <v>-0.284137309905193</v>
       </c>
-      <c r="K146">
+      <c r="K146" t="n">
         <v>-0.284137309905193</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>70</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>70.55999755859375</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>69.30000305175781</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>70.31999969482422</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
         <v>66.58715057373047</v>
       </c>
-      <c r="G147">
+      <c r="G147" t="n">
         <v>160800</v>
       </c>
-      <c r="H147">
+      <c r="H147" t="n">
         <v>0.08434851733860826</v>
       </c>
-      <c r="I147">
+      <c r="I147" t="n">
         <v>0.06217368650582508</v>
       </c>
-      <c r="J147">
+      <c r="J147" t="n">
         <v>-0.2150033684142392</v>
       </c>
-      <c r="K147">
+      <c r="K147" t="n">
         <v>-0.2150033684142392</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>70.75</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>70.83999633789062</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>69.90000152587891</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>70.63999938964844</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
         <v>68.12082672119141</v>
       </c>
-      <c r="G148">
+      <c r="G148" t="n">
         <v>373200</v>
       </c>
-      <c r="H148">
+      <c r="H148" t="n">
         <v>0.004550621390969178</v>
       </c>
-      <c r="I148">
+      <c r="I148" t="n">
         <v>0.06206337828011511</v>
       </c>
-      <c r="J148">
+      <c r="J148" t="n">
         <v>-0.2610105440327581</v>
       </c>
-      <c r="K148">
+      <c r="K148" t="n">
         <v>-0.2610105440327581</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>69.04000091552734</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>69.23000335693359</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>67.80000305175781</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>68.66000366210938</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
         <v>66.21144104003906</v>
       </c>
-      <c r="G149">
+      <c r="G149" t="n">
         <v>1446000</v>
       </c>
-      <c r="H149">
+      <c r="H149" t="n">
         <v>-0.02802938483361894</v>
       </c>
-      <c r="I149">
+      <c r="I149" t="n">
         <v>0.06162579066267362</v>
       </c>
-      <c r="J149">
+      <c r="J149" t="n">
         <v>-0.2536956123683763</v>
       </c>
-      <c r="K149">
+      <c r="K149" t="n">
         <v>-0.2536956123683763</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>68.43000030517578</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>68.65000152587891</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>67.51000213623047</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>68.26000213623047</v>
       </c>
-      <c r="F150">
-        <v>65.82569885253906</v>
-      </c>
-      <c r="G150">
+      <c r="F150" t="n">
+        <v>65.82570648193359</v>
+      </c>
+      <c r="G150" t="n">
         <v>111700</v>
       </c>
-      <c r="H150">
+      <c r="H150" t="n">
         <v>-0.005825830243869512</v>
       </c>
-      <c r="I150">
+      <c r="I150" t="n">
         <v>0.06100468478908112</v>
       </c>
-      <c r="J150">
+      <c r="J150" t="n">
         <v>-0.2415555318196615</v>
       </c>
-      <c r="K150">
+      <c r="K150" t="n">
         <v>-0.2415555318196615</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>62.34999847412109</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>63.34000015258789</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>62.34999847412109</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>62.7400016784668</v>
       </c>
-      <c r="F151">
-        <v>60.50255966186523</v>
-      </c>
-      <c r="G151">
+      <c r="F151" t="n">
+        <v>60.50255584716797</v>
+      </c>
+      <c r="G151" t="n">
         <v>177100</v>
       </c>
-      <c r="H151">
+      <c r="H151" t="n">
         <v>-0.08086727636994628</v>
       </c>
-      <c r="I151">
+      <c r="I151" t="n">
         <v>0.06050882087280977</v>
       </c>
-      <c r="J151">
+      <c r="J151" t="n">
         <v>-0.292671884587814</v>
       </c>
-      <c r="K151">
+      <c r="K151" t="n">
         <v>-0.292671884587814</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>61.11000061035156</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>61.36999893188477</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>60.52000045776367</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>61</v>
       </c>
-      <c r="F152">
-        <v>58.82460784912109</v>
-      </c>
-      <c r="G152">
+      <c r="F152" t="n">
+        <v>58.82461166381836</v>
+      </c>
+      <c r="G152" t="n">
         <v>80100</v>
       </c>
-      <c r="H152">
+      <c r="H152" t="n">
         <v>-0.02773352935793738</v>
       </c>
-      <c r="I152">
+      <c r="I152" t="n">
         <v>0.06054529297165762</v>
       </c>
-      <c r="J152">
+      <c r="J152" t="n">
         <v>-0.3067393853737419</v>
       </c>
-      <c r="K152">
+      <c r="K152" t="n">
         <v>-0.3067393853737419</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>75.5</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>75.80999755859375</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>75.01999664306641</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>75.22000122070312</v>
       </c>
-      <c r="F153">
-        <v>72.53749084472656</v>
-      </c>
-      <c r="G153">
+      <c r="F153" t="n">
+        <v>72.53749847412109</v>
+      </c>
+      <c r="G153" t="n">
         <v>179400</v>
       </c>
-      <c r="H153">
+      <c r="H153" t="n">
         <v>0.2331147741098873</v>
       </c>
-      <c r="I153">
+      <c r="I153" t="n">
         <v>0.06412219273977698</v>
       </c>
-      <c r="J153">
+      <c r="J153" t="n">
         <v>-0.1397529835259529</v>
       </c>
-      <c r="K153">
+      <c r="K153" t="n">
         <v>-0.1397529835259529</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>77.66999816894531</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>77.66999816894531</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>76.51000213623047</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>77.06999969482422</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
         <v>74.74268341064453</v>
       </c>
-      <c r="G154">
+      <c r="G154" t="n">
         <v>92000</v>
       </c>
-      <c r="H154">
+      <c r="H154" t="n">
         <v>0.02459450204863733</v>
       </c>
-      <c r="I154">
+      <c r="I154" t="n">
         <v>0.06411306761733526</v>
       </c>
-      <c r="J154">
+      <c r="J154" t="n">
         <v>-0.1202054676109117</v>
       </c>
-      <c r="K154">
+      <c r="K154" t="n">
         <v>-0.1202054676109117</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>77.54000091552734</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>77.55999755859375</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>76.73999786376953</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>76.94000244140625</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
         <v>74.61660766601562</v>
       </c>
-      <c r="G155">
+      <c r="G155" t="n">
         <v>163600</v>
       </c>
-      <c r="H155">
+      <c r="H155" t="n">
         <v>-0.001686742622715953</v>
       </c>
-      <c r="I155">
+      <c r="I155" t="n">
         <v>0.06349642541715168</v>
       </c>
-      <c r="J155">
+      <c r="J155" t="n">
         <v>-0.02496516448204233</v>
       </c>
-      <c r="K155">
+      <c r="K155" t="n">
         <v>-0.02496516448204233</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>78.91999816894531</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>78.91999816894531</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>77.30999755859375</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>77.88999938964844</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="n">
         <v>75.53791809082031</v>
       </c>
-      <c r="G156">
+      <c r="G156" t="n">
         <v>216000</v>
       </c>
-      <c r="H156">
+      <c r="H156" t="n">
         <v>0.01234724354168892</v>
       </c>
-      <c r="I156">
+      <c r="I156" t="n">
         <v>0.06333880193969608</v>
       </c>
-      <c r="J156">
+      <c r="J156" t="n">
         <v>0.1079658038179963</v>
       </c>
-      <c r="K156">
+      <c r="K156" t="n">
         <v>0.1079658038179963</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>81.69999694824219</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>82.5</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>81.40000152587891</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>82.23000335693359</v>
       </c>
-      <c r="F157">
-        <v>79.74686431884766</v>
-      </c>
-      <c r="G157">
+      <c r="F157" t="n">
+        <v>79.74687194824219</v>
+      </c>
+      <c r="G157" t="n">
         <v>100100</v>
       </c>
-      <c r="H157">
+      <c r="H157" t="n">
         <v>0.0557196559416322</v>
       </c>
-      <c r="I157">
+      <c r="I157" t="n">
         <v>0.063110445333913</v>
       </c>
-      <c r="J157">
+      <c r="J157" t="n">
         <v>0.4308335063565454</v>
       </c>
-      <c r="K157">
+      <c r="K157" t="n">
         <v>0.4308335063565454</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>81.09999847412109</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>81.40000152587891</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>80.44000244140625</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>80.76000213623047</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="n">
         <v>78.32125091552734</v>
       </c>
-      <c r="G158">
+      <c r="G158" t="n">
         <v>117200</v>
       </c>
-      <c r="H158">
+      <c r="H158" t="n">
         <v>-0.01787670145557851</v>
       </c>
-      <c r="I158">
+      <c r="I158" t="n">
         <v>0.06283977668672164</v>
       </c>
-      <c r="J158">
+      <c r="J158" t="n">
         <v>0.2453354516031081</v>
       </c>
-      <c r="K158">
+      <c r="K158" t="n">
         <v>0.2453354516031081</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>80.94999694824219</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>81.5</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>80.75</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>81.16000366210938</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="n">
         <v>78.70917510986328</v>
       </c>
-      <c r="G159">
+      <c r="G159" t="n">
         <v>187300</v>
       </c>
-      <c r="H159">
+      <c r="H159" t="n">
         <v>0.00495296576644666</v>
       </c>
-      <c r="I159">
+      <c r="I159" t="n">
         <v>0.06263246992645953</v>
       </c>
-      <c r="J159">
+      <c r="J159" t="n">
         <v>0.1541525030479063</v>
       </c>
-      <c r="K159">
+      <c r="K159" t="n">
         <v>0.1541525030479063</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>77.72000122070312</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>77.98999786376953</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>77.54000091552734</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>77.95999908447266</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
         <v>76.79273223876953</v>
       </c>
-      <c r="G160">
+      <c r="G160" t="n">
         <v>78600</v>
       </c>
-      <c r="H160">
+      <c r="H160" t="n">
         <v>-0.03942834442146137</v>
       </c>
-      <c r="I160">
+      <c r="I160" t="n">
         <v>0.06246287222290403</v>
       </c>
-      <c r="J160">
+      <c r="J160" t="n">
         <v>0.1036240056352109</v>
       </c>
-      <c r="K160">
+      <c r="K160" t="n">
         <v>0.1036240056352109</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>72.66000366210938</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>73.20999908447266</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>72.62000274658203</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>73.11000061035156</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="n">
         <v>72.01535034179688</v>
       </c>
-      <c r="G161">
+      <c r="G161" t="n">
         <v>61300</v>
       </c>
-      <c r="H161">
+      <c r="H161" t="n">
         <v>-0.06221137161463963</v>
       </c>
-      <c r="I161">
+      <c r="I161" t="n">
         <v>0.06164659790477848</v>
       </c>
-      <c r="J161">
+      <c r="J161" t="n">
         <v>0.06481206977706533</v>
       </c>
-      <c r="K161">
+      <c r="K161" t="n">
         <v>0.06481206977706533</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>79.40000152587891</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>79.88999938964844</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>79.40000152587891</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>79.51999664306641</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="n">
         <v>78.32936859130859</v>
       </c>
-      <c r="G162">
+      <c r="G162" t="n">
         <v>325400</v>
       </c>
-      <c r="H162">
+      <c r="H162" t="n">
         <v>0.08767604950351027</v>
       </c>
-      <c r="I162">
+      <c r="I162" t="n">
         <v>0.06170943480710174</v>
       </c>
-      <c r="J162">
+      <c r="J162" t="n">
         <v>0.1649574297458078</v>
       </c>
-      <c r="K162">
+      <c r="K162" t="n">
         <v>0.1649574297458078</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>74.73000335693359</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>75.12999725341797</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>74.26999664306641</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>74.61000061035156</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="n">
         <v>73.49288940429688</v>
       </c>
-      <c r="G163">
+      <c r="G163" t="n">
         <v>102800</v>
       </c>
-      <c r="H163">
+      <c r="H163" t="n">
         <v>-0.06174542555319584</v>
       </c>
-      <c r="I163">
+      <c r="I163" t="n">
         <v>0.05919574473024773</v>
       </c>
-      <c r="J163">
+      <c r="J163" t="n">
         <v>0.1891934748857156</v>
       </c>
-      <c r="K163">
+      <c r="K163" t="n">
         <v>0.1891934748857156</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>76.91999816894531</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>76.94999694824219</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>76.19999694824219</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>76.62000274658203</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="n">
         <v>75.47279357910156</v>
       </c>
-      <c r="G164">
+      <c r="G164" t="n">
         <v>122300</v>
       </c>
-      <c r="H164">
+      <c r="H164" t="n">
         <v>0.02694011687156572</v>
       </c>
-      <c r="I164">
+      <c r="I164" t="n">
         <v>0.05848840025372789</v>
       </c>
-      <c r="J164">
+      <c r="J164" t="n">
         <v>0.2560656187964268</v>
       </c>
-      <c r="K164">
+      <c r="K164" t="n">
         <v>0.2560656187964268</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>72.5</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>73.05000305175781</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>71.83000183105469</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>72.87000274658203</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
         <v>71.77894592285156</v>
       </c>
-      <c r="G165">
+      <c r="G165" t="n">
         <v>172300</v>
       </c>
-      <c r="H165">
+      <c r="H165" t="n">
         <v>-0.04894283301454572</v>
       </c>
-      <c r="I165">
+      <c r="I165" t="n">
         <v>0.05855606448575754</v>
       </c>
-      <c r="J165">
+      <c r="J165" t="n">
         <v>-0.03124167024706581</v>
       </c>
-      <c r="K165">
+      <c r="K165" t="n">
         <v>-0.03124167024706581</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>76.40000152587891</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>76.75</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>75.97000122070312</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>76.13999938964844</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
         <v>76.13999938964844</v>
       </c>
-      <c r="G166">
+      <c r="G166" t="n">
         <v>35200</v>
       </c>
-      <c r="H166">
+      <c r="H166" t="n">
         <v>0.04487438616461126</v>
       </c>
-      <c r="I166">
+      <c r="I166" t="n">
         <v>0.05862431714811514</v>
       </c>
-      <c r="J166">
+      <c r="J166" t="n">
         <v>-0.01206695612895192</v>
       </c>
-      <c r="K166">
+      <c r="K166" t="n">
         <v>-0.01206695612895192</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B167">
-        <v>76.34999847412109</v>
-      </c>
-      <c r="C167">
-        <v>76.44999694824219</v>
-      </c>
-      <c r="D167">
-        <v>75.90000152587891</v>
-      </c>
-      <c r="E167">
-        <v>76.39499664306641</v>
-      </c>
-      <c r="F167">
-        <v>76.39499664306641</v>
-      </c>
-      <c r="G167">
-        <v>43701</v>
-      </c>
-      <c r="H167">
-        <v>0.00334905772868499</v>
-      </c>
-      <c r="I167">
-        <v>0.05819228133566384</v>
-      </c>
-      <c r="J167">
-        <v>-0.007083516779907706</v>
-      </c>
-      <c r="K167">
-        <v>-0.007083516779907706</v>
+      <c r="B167" t="n">
+        <v>76.76000213623047</v>
+      </c>
+      <c r="C167" t="n">
+        <v>77.19999694824219</v>
+      </c>
+      <c r="D167" t="n">
+        <v>76.80000305175781</v>
+      </c>
+      <c r="E167" t="n">
+        <v>77.19999694824219</v>
+      </c>
+      <c r="F167" t="n">
+        <v>77.19999694824219</v>
+      </c>
+      <c r="G167" t="n">
+        <v>28216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.01392169118848008</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.05820076889478253</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.003379185060904177</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.003379185060904177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>